--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_发现组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码宣传页面下架</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、房东APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1025,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,18 +1155,36 @@
       <c r="T2" s="28"/>
     </row>
     <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="J3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
       <c r="O3" s="24"/>

--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3.2 20161013\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -247,6 +242,14 @@
   </si>
   <si>
     <t>郑良杰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1028,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,9 +1146,15 @@
       <c r="L2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42656</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -1185,9 +1194,15 @@
       <c r="L3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42656</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
